--- a/PositionalEmbedding.xlsx
+++ b/PositionalEmbedding.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08102025\App\logits\logits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F215C6A-12E4-48AE-B119-B54DCE6DAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371FBBD-2ACD-4616-A90D-48D9275E9FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{38CDF928-8236-4176-B75A-BDB19F1E8536}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38CDF928-8236-4176-B75A-BDB19F1E8536}"/>
   </bookViews>
   <sheets>
     <sheet name="PE - Fixed" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PE - RoPE" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>pos:</t>
   </si>
@@ -60,9 +61,6 @@
     <t>theta</t>
   </si>
   <si>
-    <t>COSINE SIMILARITY</t>
-  </si>
-  <si>
     <t>POS2</t>
   </si>
   <si>
@@ -80,14 +78,68 @@
   <si>
     <t>POS10</t>
   </si>
+  <si>
+    <t>POS6</t>
+  </si>
+  <si>
+    <t>POS8</t>
+  </si>
+  <si>
+    <t>POS11</t>
+  </si>
+  <si>
+    <t>COSINE SIMILARITY FOR POSITIONS</t>
+  </si>
+  <si>
+    <t>RoPE</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Q(t=pos)</t>
+  </si>
+  <si>
+    <t>X_0</t>
+  </si>
+  <si>
+    <t>Y_0</t>
+  </si>
+  <si>
+    <t>for scatter plot</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>K(t=pos)</t>
+  </si>
+  <si>
+    <t>Q.K</t>
+  </si>
+  <si>
+    <t>Rope(Q).Rope(K)</t>
+  </si>
+  <si>
+    <t>SUM(Q.K)</t>
+  </si>
+  <si>
+    <t>SUM(Rotated Q.K)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,30 +247,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +300,920 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rotation by RoPE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22651554239480748"/>
+          <c:y val="0.19967886962106618"/>
+          <c:w val="0.71778645190718682"/>
+          <c:h val="0.69113680154142587"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Q1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-546D-4FE4-B7D0-5E521AA2E407}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9013112491374626E-3"/>
+                  <c:y val="-9.1185410334346545E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRoundRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$A$6,'PE - RoPE'!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$B$6,'PE - RoPE'!$F$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-546D-4FE4-B7D0-5E521AA2E407}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RoPE(Q1)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24204718975345477"/>
+                  <c:y val="7.424032102370183E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRoundRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$A$8,'PE - RoPE'!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.26855850335002268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$B$8,'PE - RoPE'!$F$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.46677224668824924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-546D-4FE4-B7D0-5E521AA2E407}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Q2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5178875638842605E-3"/>
+                  <c:y val="4.5327754532775454E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$A$6,'PE - RoPE'!$G$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$B$6,'PE - RoPE'!$H$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-546D-4FE4-B7D0-5E521AA2E407}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>RoPE(Q2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24552553801302945"/>
+                  <c:y val="-6.1055194983472255E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-546D-4FE4-B7D0-5E521AA2E407}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$A$8,'PE - RoPE'!$G$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2036931899462449E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('PE - RoPE'!$B$8,'PE - RoPE'!$H$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71988394645003717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-546D-4FE4-B7D0-5E521AA2E407}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="14100111"/>
+        <c:axId val="14091471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="14100111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14091471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="14091471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14100111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1479,7 +2456,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1984,6 +3517,312 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41165EAC-A768-A479-FCFE-415422C45E0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7360920" y="2950020"/>
+            <a:ext cx="718920" cy="289440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41165EAC-A768-A479-FCFE-415422C45E0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7354800" y="2943900"/>
+              <a:ext cx="731160" cy="301680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E7762D-CFAF-5B5D-89B1-60CF52A03633}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7345440" y="2970900"/>
+            <a:ext cx="113400" cy="138960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E7762D-CFAF-5B5D-89B1-60CF52A03633}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7339320" y="2964780"/>
+              <a:ext cx="125640" cy="151200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD7EC99-579B-4E0E-BFBF-70400BCA327D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9387840" y="3018600"/>
+            <a:ext cx="718920" cy="289440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD7EC99-579B-4E0E-BFBF-70400BCA327D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9381720" y="3012480"/>
+              <a:ext cx="731160" cy="301680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9698F2-7308-4ECF-8F5A-E40BBEE6A873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9341880" y="3024240"/>
+            <a:ext cx="113400" cy="138960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9698F2-7308-4ECF-8F5A-E40BBEE6A873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9335760" y="3018120"/>
+              <a:ext cx="125640" cy="151200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87EDC9-1275-C291-8474-F48CA7EA1269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2021,6 +3860,114 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-05T06:14:40.022"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 166 24575,'16'44'0,"-3"-10"0,2 0 0,1-1 0,1-1 0,2-1 0,1 0 0,1-2 0,2 0 0,1-2 0,1 0 0,1-2 0,1-1 0,2-1 0,59 38 0,-77-56 0,1 0 0,-1 0 0,1-1 0,0-1 0,21 4 0,31 10 0,-8 0 0,14 5 0,-42-10 0,-1 0 0,2-2 0,-1-2 0,1 0 0,1-2 0,-1-1 0,1-2 0,33 1 0,81-4 0,77-2 0,-212 0 0,1 1 0,-1-2 0,0 1 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,10-8 0,36-22 0,-32 24 0,-10 6 0,0-2 0,20-13 0,-24 14 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,8-16 0,-4 8 0,32-41 0,-31 44 0,-1 0 0,-1-1 0,0 0 0,0 0 0,11-29 0,-11 15 0,0 2 0,2-1 0,28-47 0,-29 54 0,0 0 0,-1 0 0,-1-1 0,-1 0 0,-1-1 0,0 1 0,-2-1 0,-1 0 0,1-43 0,-4 65 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-9 8 0,-5 11 0,-44 68 0,-4 7 0,54-70 0,13-20 0,7-12 0,-4 0 0,-1 1 0,0-2 0,0 1 0,-1-1 0,0 0 0,-1 0 0,7-15 0,-8 15 0,1 0 0,-1 0 0,2 0 0,-1 1 0,1 0 0,0 0 0,1 0 0,11-10 0,-16 17 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,0 2 0,3 1 0,-1 1 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,2 13 0,-3-12-195,0 0 0,0 1 0,1-1 0,-1 0 0,2 0 0,3 6 0,2 2-6631</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-05T06:14:44.576"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 23 24575,'0'362'0,"-1"-406"0,3 0 0,9-61 0,-7 81 0,-1-44 0,0 12 0,-3 54 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,2-1 0,0 0 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 1 0,3 1 0,1 1 0,-1 0 0,1 1 0,-1 0 0,-1 0 0,18 11 0,-14-6 0,0-1 0,1 0 0,0-1 0,20 7 0,-28-13-227,-1 1-1,0 0 1,0 1-1,0-1 1,7 6-1,0 2-6598</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-05T06:14:49.775"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 166 24575,'16'44'0,"-3"-10"0,2 0 0,1-1 0,1-1 0,2-1 0,1 0 0,1-2 0,2 0 0,1-2 0,1 0 0,1-2 0,1-1 0,2-1 0,59 38 0,-77-56 0,1 0 0,-1 0 0,1-1 0,0-1 0,21 4 0,31 10 0,-8 0 0,14 5 0,-42-10 0,-1 0 0,2-2 0,-1-2 0,1 0 0,1-2 0,-1-1 0,1-2 0,33 1 0,81-4 0,77-2 0,-212 0 0,1 1 0,-1-2 0,0 1 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,10-8 0,36-22 0,-32 24 0,-10 6 0,0-2 0,20-13 0,-24 14 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,8-16 0,-4 8 0,32-41 0,-31 44 0,-1 0 0,-1-1 0,0 0 0,0 0 0,11-29 0,-11 15 0,0 2 0,2-1 0,28-47 0,-29 54 0,0 0 0,-1 0 0,-1-1 0,-1 0 0,-1-1 0,0 1 0,-2-1 0,-1 0 0,1-43 0,-4 65 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-9 8 0,-5 11 0,-44 68 0,-4 7 0,54-70 0,13-20 0,7-12 0,-4 0 0,-1 1 0,0-2 0,0 1 0,-1-1 0,0 0 0,-1 0 0,7-15 0,-8 15 0,1 0 0,-1 0 0,2 0 0,-1 1 0,1 0 0,0 0 0,1 0 0,11-10 0,-16 17 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,0 2 0,3 1 0,-1 1 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,2 13 0,-3-12-195,0 0 0,0 1 0,1-1 0,-1 0 0,2 0 0,3 6 0,2 2-6631</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-05T06:14:56.929"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 23 24575,'0'362'0,"-1"-406"0,3 0 0,9-61 0,-7 81 0,-1-44 0,0 12 0,-3 54 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,2-1 0,0 0 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 1 0,3 1 0,1 1 0,-1 0 0,1 1 0,-1 0 0,-1 0 0,18 11 0,-14-6 0,0-1 0,1 0 0,0-1 0,20 7 0,-28-13-227,-1 1-1,0 0 1,0 1-1,0-1 1,7 6-1,0 2-6598</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2340,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B26A21-F47E-4BCE-8458-50B77D308620}">
-  <dimension ref="B2:S35"/>
+  <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2353,9 +4300,10 @@
     <col min="4" max="4" width="6.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2363,15 +4311,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2412,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -2451,182 +4399,182 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6">
         <f>$C3/(10000^(2*C4/$C$2))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6">
         <f>$C3/(10000^(2*D4/$C$2))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7">
         <f>$C3/(10000^(2*E4/$C$2))</f>
-        <v>0.43088693800637673</v>
+        <v>0.64633040700956501</v>
       </c>
       <c r="F6" s="7">
         <f>$C3/(10000^(2*F4/$C$2))</f>
-        <v>0.43088693800637673</v>
+        <v>0.64633040700956501</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" ref="G6:J6" si="0">$C3/(10000^(2*G4/$C$2))</f>
-        <v>9.2831776672255562E-2</v>
+        <v>0.13924766500838334</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>9.2831776672255562E-2</v>
+        <v>0.13924766500838334</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:N6" si="1">$C3/(10000^(2*K4/$C$2))</f>
-        <v>4.3088693800637651E-3</v>
+        <v>6.4633040700956467E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>4.3088693800637651E-3</v>
+        <v>6.4633040700956467E-3</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="1"/>
-        <v>9.2831776672255514E-4</v>
+        <v>1.3924766500838328E-3</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="1"/>
-        <v>9.2831776672255514E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1.3924766500838328E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6">
         <f>SIN($C3/(10000^(2*C4/$C$2)))</f>
-        <v>0.90929742682568171</v>
+        <v>0.14112000805986721</v>
       </c>
       <c r="D7" s="6">
         <f>COS($C3/(10000^(2*D4/$C$2)))</f>
-        <v>-0.41614683654714241</v>
+        <v>-0.98999249660044542</v>
       </c>
       <c r="E7" s="8">
         <f>SIN($C3/(10000^(2*E4/$C$2)))</f>
-        <v>0.41767683462581268</v>
+        <v>0.60226103407633136</v>
       </c>
       <c r="F7" s="8">
         <f>COS($C3/(10000^(2*F4/$C$2)))</f>
-        <v>0.90859565364190553</v>
+        <v>0.79829922136584097</v>
       </c>
       <c r="G7" s="6">
         <f>SIN($C3/(10000^(2*G4/$C$2)))</f>
-        <v>9.2698500778727211E-2</v>
+        <v>0.1387981010800505</v>
       </c>
       <c r="H7" s="6">
         <f>COS($C3/(10000^(2*H4/$C$2)))</f>
-        <v>0.99569422412373987</v>
+        <v>0.990320699135675</v>
       </c>
       <c r="I7" s="8">
         <f>SIN($C3/(10000^(2*I4/$C$2)))</f>
-        <v>1.999866669333308E-2</v>
+        <v>2.999550020249566E-2</v>
       </c>
       <c r="J7" s="8">
         <f>COS($C3/(10000^(2*J4/$C$2)))</f>
-        <v>0.99980000666657776</v>
+        <v>0.99955003374898754</v>
       </c>
       <c r="K7" s="6">
         <f>SIN($C3/(10000^(2*K4/$C$2)))</f>
-        <v>4.3088560467428091E-3</v>
+        <v>6.4632590701896387E-3</v>
       </c>
       <c r="L7" s="6">
         <f>COS($C3/(10000^(2*L4/$C$2)))</f>
-        <v>0.99999071683669571</v>
+        <v>0.99997911292296082</v>
       </c>
       <c r="M7" s="8">
         <f>SIN($C3/(10000^(2*M4/$C$2)))</f>
-        <v>9.2831763338922758E-4</v>
+        <v>1.3924762000838765E-3</v>
       </c>
       <c r="N7" s="8">
         <f>COS($C3/(10000^(2*N4/$C$2)))</f>
-        <v>0.99999956911309296</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="str">
+        <v>0.99999903050454619</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="str">
         <f>TEXT(C7, "#,##0.00")</f>
-        <v>0.91</v>
-      </c>
-      <c r="D8" s="12" t="str">
+        <v>0.14</v>
+      </c>
+      <c r="D8" s="11" t="str">
         <f t="shared" ref="D8:N8" si="2">TEXT(D7, "#,##0.00")</f>
-        <v>-0.42</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>0.42</v>
-      </c>
-      <c r="F8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>0.91</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="H8" s="12" t="str">
+        <v>-0.99</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.60</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.80</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.14</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>1.00</v>
       </c>
-      <c r="I8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="J8" s="12" t="str">
+      <c r="K8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>1.00</v>
       </c>
-      <c r="K8" s="12" t="str">
+      <c r="M8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>0.00</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="N8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>1.00</v>
       </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>0.00</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1.00</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="str">
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="str">
         <f>"PE=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, C8:N8) &amp; "]"</f>
-        <v>PE=[0.91, -0.42, 0.42, 0.91, 0.09, 1.00, 0.02, 1.00, 0.00, 1.00, 0.00, 1.00]</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+        <v>PE=[0.14, -0.99, 0.60, 0.80, 0.14, 0.99, 0.03, 1.00, 0.01, 1.00, 0.00, 1.00]</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2634,18 +4582,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2686,16 +4634,25 @@
         <v>5</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="S13" s="1">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -2734,16 +4691,25 @@
         <v>5</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S14" s="1">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2796,16 +4762,25 @@
         <v>1.3924766500838328E-3</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +4801,7 @@
         <v>0.79829922136584097</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G16:J16" si="4">SIN($C12/(10000^(2*G13/$C$2)))</f>
+        <f t="shared" ref="G16" si="4">SIN($C12/(10000^(2*G13/$C$2)))</f>
         <v>0.1387981010800505</v>
       </c>
       <c r="H16" s="6">
@@ -2834,7 +4809,7 @@
         <v>0.990320699135675</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" ref="I16:L16" si="5">SIN($C12/(10000^(2*I13/$C$2)))</f>
+        <f t="shared" ref="I16" si="5">SIN($C12/(10000^(2*I13/$C$2)))</f>
         <v>2.999550020249566E-2</v>
       </c>
       <c r="J16" s="8">
@@ -2842,7 +4817,7 @@
         <v>0.99955003374898754</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" ref="K16:N16" si="6">SIN($C12/(10000^(2*K13/$C$2)))</f>
+        <f t="shared" ref="K16" si="6">SIN($C12/(10000^(2*K13/$C$2)))</f>
         <v>6.4632590701896387E-3</v>
       </c>
       <c r="L16" s="6">
@@ -2850,7 +4825,7 @@
         <v>0.99997911292296082</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" ref="M16:N16" si="7">SIN($C12/(10000^(2*M13/$C$2)))</f>
+        <f t="shared" ref="M16" si="7">SIN($C12/(10000^(2*M13/$C$2)))</f>
         <v>1.3924762000838765E-3</v>
       </c>
       <c r="N16" s="8">
@@ -2858,114 +4833,135 @@
         <v>0.99999903050454619</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S16" s="1">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="str">
+      <c r="U16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="str">
         <f>TEXT(C16, "#,##0.00")</f>
         <v>0.14</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="11" t="str">
         <f t="shared" ref="D17" si="8">TEXT(D16, "#,##0.00")</f>
         <v>-0.99</v>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="11" t="str">
         <f t="shared" ref="E17" si="9">TEXT(E16, "#,##0.00")</f>
         <v>0.60</v>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="11" t="str">
         <f t="shared" ref="F17" si="10">TEXT(F16, "#,##0.00")</f>
         <v>0.80</v>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" ref="G17" si="11">TEXT(G16, "#,##0.00")</f>
         <v>0.14</v>
       </c>
-      <c r="H17" s="12" t="str">
+      <c r="H17" s="11" t="str">
         <f t="shared" ref="H17" si="12">TEXT(H16, "#,##0.00")</f>
         <v>0.99</v>
       </c>
-      <c r="I17" s="12" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" ref="I17" si="13">TEXT(I16, "#,##0.00")</f>
         <v>0.03</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="11" t="str">
         <f t="shared" ref="J17" si="14">TEXT(J16, "#,##0.00")</f>
         <v>1.00</v>
       </c>
-      <c r="K17" s="12" t="str">
+      <c r="K17" s="11" t="str">
         <f t="shared" ref="K17" si="15">TEXT(K16, "#,##0.00")</f>
         <v>0.01</v>
       </c>
-      <c r="L17" s="12" t="str">
+      <c r="L17" s="11" t="str">
         <f t="shared" ref="L17" si="16">TEXT(L16, "#,##0.00")</f>
         <v>1.00</v>
       </c>
-      <c r="M17" s="12" t="str">
+      <c r="M17" s="11" t="str">
         <f t="shared" ref="M17" si="17">TEXT(M16, "#,##0.00")</f>
         <v>0.00</v>
       </c>
-      <c r="N17" s="12" t="str">
+      <c r="N17" s="11" t="str">
         <f t="shared" ref="N17" si="18">TEXT(N16, "#,##0.00")</f>
         <v>1.00</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="str">
+      <c r="U17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="str">
         <f>"PE=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, C17:N17) &amp; "]"</f>
         <v>PE=[0.14, -0.99, 0.60, 0.80, 0.14, 0.99, 0.03, 1.00, 0.01, 1.00, 0.00, 1.00]</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
       <c r="Q18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="U18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2973,15 +4969,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -3061,401 +5057,401 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="6">
         <f>$C21/(10000^(2*C22/$C$2))</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6">
         <f>$C21/(10000^(2*D22/$C$2))</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E24" s="7">
         <f>$C21/(10000^(2*E22/$C$2))</f>
-        <v>2.1544346900318834</v>
+        <v>21.544346900318835</v>
       </c>
       <c r="F24" s="7">
         <f>$C21/(10000^(2*F22/$C$2))</f>
-        <v>2.1544346900318834</v>
+        <v>21.544346900318835</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" ref="G24:N24" si="19">$C21/(10000^(2*G22/$C$2))</f>
-        <v>0.46415888336127775</v>
+        <v>4.6415888336127775</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="19"/>
-        <v>0.46415888336127775</v>
+        <v>4.6415888336127775</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="19"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="19"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="19"/>
-        <v>2.1544346900318822E-2</v>
+        <v>0.21544346900318823</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="19"/>
-        <v>2.1544346900318822E-2</v>
+        <v>0.21544346900318823</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="19"/>
-        <v>4.6415888336127755E-3</v>
+        <v>4.641588833612776E-2</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="19"/>
-        <v>4.6415888336127755E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+        <v>4.641588833612776E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="6">
         <f>SIN($C21/(10000^(2*C22/$C$2)))</f>
-        <v>-0.54402111088936977</v>
+        <v>-0.50636564110975879</v>
       </c>
       <c r="D25" s="6">
         <f>COS($C21/(10000^(2*D22/$C$2)))</f>
-        <v>-0.83907152907645244</v>
+        <v>0.86231887228768389</v>
       </c>
       <c r="E25" s="8">
         <f>SIN($C21/(10000^(2*E22/$C$2)))</f>
-        <v>0.83446320776041372</v>
+        <v>0.43208339168008258</v>
       </c>
       <c r="F25" s="8">
         <f>COS($C21/(10000^(2*F22/$C$2)))</f>
-        <v>-0.55106365775126254</v>
+        <v>-0.90183365574491414</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" ref="G25:J25" si="20">SIN($C21/(10000^(2*G22/$C$2)))</f>
-        <v>0.44767083471895708</v>
+        <f t="shared" ref="G25" si="20">SIN($C21/(10000^(2*G22/$C$2)))</f>
+        <v>-0.99749471638229203</v>
       </c>
       <c r="H25" s="6">
         <f>COS($C21/(10000^(2*H22/$C$2)))</f>
-        <v>0.89419842526255444</v>
+        <v>-7.0741012075108911E-2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" ref="I25:L25" si="21">SIN($C21/(10000^(2*I22/$C$2)))</f>
-        <v>9.9833416646828155E-2</v>
+        <f t="shared" ref="I25" si="21">SIN($C21/(10000^(2*I22/$C$2)))</f>
+        <v>0.8414709848078965</v>
       </c>
       <c r="J25" s="8">
         <f>COS($C21/(10000^(2*J22/$C$2)))</f>
-        <v>0.99500416527802582</v>
+        <v>0.54030230586813977</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:N25" si="22">SIN($C21/(10000^(2*K22/$C$2)))</f>
-        <v>2.1542680272331634E-2</v>
+        <f t="shared" ref="K25" si="22">SIN($C21/(10000^(2*K22/$C$2)))</f>
+        <v>0.2137806660552988</v>
       </c>
       <c r="L25" s="6">
         <f>COS($C21/(10000^(2*L22/$C$2)))</f>
-        <v>0.99976792953499172</v>
+        <v>0.97688168517019136</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" ref="M25:N25" si="23">SIN($C21/(10000^(2*M22/$C$2)))</f>
-        <v>4.6415721669640624E-3</v>
+        <f t="shared" ref="M25" si="23">SIN($C21/(10000^(2*M22/$C$2)))</f>
+        <v>4.6399223464731243E-2</v>
       </c>
       <c r="N25" s="8">
         <f>COS($C21/(10000^(2*N22/$C$2)))</f>
-        <v>0.99998922784588973</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="str">
+        <v>0.99892297604063041</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="str">
         <f>TEXT(C25, "#,##0.00")</f>
-        <v>-0.54</v>
-      </c>
-      <c r="D26" s="12" t="str">
+        <v>-0.51</v>
+      </c>
+      <c r="D26" s="11" t="str">
         <f t="shared" ref="D26" si="24">TEXT(D25, "#,##0.00")</f>
-        <v>-0.84</v>
-      </c>
-      <c r="E26" s="12" t="str">
+        <v>0.86</v>
+      </c>
+      <c r="E26" s="11" t="str">
         <f t="shared" ref="E26" si="25">TEXT(E25, "#,##0.00")</f>
-        <v>0.83</v>
-      </c>
-      <c r="F26" s="12" t="str">
+        <v>0.43</v>
+      </c>
+      <c r="F26" s="11" t="str">
         <f t="shared" ref="F26" si="26">TEXT(F25, "#,##0.00")</f>
-        <v>-0.55</v>
-      </c>
-      <c r="G26" s="12" t="str">
+        <v>-0.90</v>
+      </c>
+      <c r="G26" s="11" t="str">
         <f t="shared" ref="G26" si="27">TEXT(G25, "#,##0.00")</f>
-        <v>0.45</v>
-      </c>
-      <c r="H26" s="12" t="str">
+        <v>-1.00</v>
+      </c>
+      <c r="H26" s="11" t="str">
         <f t="shared" ref="H26" si="28">TEXT(H25, "#,##0.00")</f>
-        <v>0.89</v>
-      </c>
-      <c r="I26" s="12" t="str">
+        <v>-0.07</v>
+      </c>
+      <c r="I26" s="11" t="str">
         <f t="shared" ref="I26" si="29">TEXT(I25, "#,##0.00")</f>
-        <v>0.10</v>
-      </c>
-      <c r="J26" s="12" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="J26" s="11" t="str">
         <f t="shared" ref="J26" si="30">TEXT(J25, "#,##0.00")</f>
-        <v>1.00</v>
-      </c>
-      <c r="K26" s="12" t="str">
+        <v>0.54</v>
+      </c>
+      <c r="K26" s="11" t="str">
         <f t="shared" ref="K26" si="31">TEXT(K25, "#,##0.00")</f>
-        <v>0.02</v>
-      </c>
-      <c r="L26" s="12" t="str">
+        <v>0.21</v>
+      </c>
+      <c r="L26" s="11" t="str">
         <f t="shared" ref="L26" si="32">TEXT(L25, "#,##0.00")</f>
-        <v>1.00</v>
-      </c>
-      <c r="M26" s="12" t="str">
+        <v>0.98</v>
+      </c>
+      <c r="M26" s="11" t="str">
         <f t="shared" ref="M26" si="33">TEXT(M25, "#,##0.00")</f>
-        <v>0.00</v>
-      </c>
-      <c r="N26" s="12" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="N26" s="11" t="str">
         <f t="shared" ref="N26" si="34">TEXT(N25, "#,##0.00")</f>
         <v>1.00</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="str">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="str">
         <f>"PE=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, C26:N26) &amp; "]"</f>
-        <v>PE=[-0.54, -0.84, 0.83, -0.55, 0.45, 0.89, 0.10, 1.00, 0.02, 1.00, 0.00, 1.00]</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+        <v>PE=[-0.51, 0.86, 0.43, -0.90, -1.00, -0.07, 0.84, 0.54, 0.21, 0.98, 0.05, 1.00]</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <f>C7*C16</f>
-        <v>0.12832006020245673</v>
+        <v>1.9914856674816989E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ref="D29:N29" si="35">D7*D16</f>
-        <v>0.41198224566568298</v>
+        <v>0.98008514332518293</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="35"/>
-        <v>0.25155048233147076</v>
+        <v>0.36271835316669199</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="35"/>
-        <v>0.72533120283872055</v>
+        <v>0.63728164683330801</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="35"/>
-        <v>1.2866375881054919E-2</v>
+        <v>1.9264912863427915E-2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="35"/>
-        <v>0.98605660015957552</v>
+        <v>0.98073508713657209</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="35"/>
-        <v>5.9987001084951558E-4</v>
+        <v>8.997300323979172E-4</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="35"/>
-        <v>0.99935013040581577</v>
+        <v>0.99910026996760215</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="35"/>
-        <v>2.7849252926251931E-5</v>
+        <v>4.177371780838863E-5</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="35"/>
-        <v>0.99996982995355466</v>
+        <v>0.99995822628219166</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="35"/>
-        <v>1.2926602106126888E-6</v>
+        <v>1.9389899678000321E-6</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="35"/>
-        <v>0.99999859961805693</v>
+        <v>0.9999980610100323</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(C29:N29)</f>
-        <v>5.5160545389803755</v>
+        <v>6</v>
       </c>
       <c r="P29" s="3">
         <f>O29/(P33*P34)</f>
-        <v>0.91934242316339609</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <f>C7*C25</f>
-        <v>-0.49467699627055278</v>
+        <v>-7.1458323354648995E-2</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ref="D30:N30" si="36">D7*D25</f>
-        <v>0.3491769624619393</v>
+        <v>-0.85368921324176483</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="36"/>
-        <v>0.34853595122907149</v>
+        <v>0.26022699028045504</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="36"/>
-        <v>-0.50069404431280773</v>
+        <v>-0.71993310518267484</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="36"/>
-        <v>4.1498415220808701E-2</v>
+        <v>-0.13845037247124567</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="36"/>
-        <v>0.89034820725446917</v>
+        <v>-7.005628853578709E-2</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="36"/>
-        <v>1.9965352243765666E-3</v>
+        <v>2.5240343095199482E-2</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="36"/>
-        <v>0.99480517107824284</v>
+        <v>0.54005918806515485</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="36"/>
-        <v>9.282430815448319E-5</v>
+        <v>1.3817198289130922E-3</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="36"/>
-        <v>0.99975864852603546</v>
+        <v>0.97686128096717506</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" si="36"/>
-        <v>4.3088532892413873E-6</v>
+        <v>6.4609814377011604E-5</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="36"/>
-        <v>0.9999887969636243</v>
+        <v>0.99892200758934646</v>
       </c>
       <c r="O30" s="3">
         <f>SUM(C30:N30)</f>
-        <v>3.6308347805366505</v>
+        <v>0.9491688368544996</v>
       </c>
       <c r="P30" s="3">
         <f>O30/(P34*P35)</f>
-        <v>0.60513913008944187</v>
+        <v>0.15819480614241663</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <f>C7^2</f>
-        <v>0.82682181043180603</v>
-      </c>
-      <c r="D33" s="15">
+        <v>1.9914856674816989E-2</v>
+      </c>
+      <c r="D33" s="13">
         <f t="shared" ref="D33:N33" si="37">D7^2</f>
-        <v>0.17317818956819406</v>
-      </c>
-      <c r="E33" s="15">
+        <v>0.98008514332518293</v>
+      </c>
+      <c r="E33" s="13">
         <f t="shared" si="37"/>
-        <v>0.17445393818303848</v>
-      </c>
-      <c r="F33" s="15">
+        <v>0.36271835316669199</v>
+      </c>
+      <c r="F33" s="13">
         <f t="shared" si="37"/>
-        <v>0.82554606181696155</v>
-      </c>
-      <c r="G33" s="15">
+        <v>0.63728164683330801</v>
+      </c>
+      <c r="G33" s="13">
         <f t="shared" si="37"/>
-        <v>8.5930120466236899E-3</v>
-      </c>
-      <c r="H33" s="15">
+        <v>1.9264912863427915E-2</v>
+      </c>
+      <c r="H33" s="13">
         <f t="shared" si="37"/>
-        <v>0.99140698795337634</v>
-      </c>
-      <c r="I33" s="15">
+        <v>0.98073508713657209</v>
+      </c>
+      <c r="I33" s="13">
         <f t="shared" si="37"/>
-        <v>3.9994666951102988E-4</v>
-      </c>
-      <c r="J33" s="15">
+        <v>8.997300323979172E-4</v>
+      </c>
+      <c r="J33" s="13">
         <f t="shared" si="37"/>
-        <v>0.99960005333048896</v>
-      </c>
-      <c r="K33" s="15">
+        <v>0.99910026996760215</v>
+      </c>
+      <c r="K33" s="13">
         <f t="shared" si="37"/>
-        <v>1.856624043155207E-5</v>
-      </c>
-      <c r="L33" s="15">
+        <v>4.177371780838863E-5</v>
+      </c>
+      <c r="L33" s="13">
         <f t="shared" si="37"/>
-        <v>0.99998143375956849</v>
-      </c>
-      <c r="M33" s="15">
+        <v>0.99995822628219166</v>
+      </c>
+      <c r="M33" s="13">
         <f t="shared" si="37"/>
-        <v>8.617736284613763E-7</v>
-      </c>
-      <c r="N33" s="15">
+        <v>1.9389899678000321E-6</v>
+      </c>
+      <c r="N33" s="13">
         <f t="shared" si="37"/>
-        <v>0.99999913822637154</v>
+        <v>0.9999980610100323</v>
       </c>
       <c r="O33" s="3">
         <f>SUM(C33:N33)</f>
         <v>6</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="13">
         <f>SQRT(O33)</f>
         <v>2.4494897427831779</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <f>C16^2</f>
         <v>1.9914856674816989E-2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <f t="shared" ref="D34:N34" si="38">D16^2</f>
         <v>0.98008514332518293</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="13">
         <f t="shared" si="38"/>
         <v>0.36271835316669199</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <f t="shared" si="38"/>
         <v>0.63728164683330801</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <f t="shared" si="38"/>
         <v>1.9264912863427915E-2</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="13">
         <f t="shared" si="38"/>
         <v>0.98073508713657209</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="13">
         <f t="shared" si="38"/>
         <v>8.997300323979172E-4</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="13">
         <f t="shared" si="38"/>
         <v>0.99910026996760215</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="13">
         <f t="shared" si="38"/>
         <v>4.177371780838863E-5</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="13">
         <f t="shared" si="38"/>
         <v>0.99995822628219166</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="13">
         <f t="shared" si="38"/>
         <v>1.9389899678000321E-6</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="13">
         <f t="shared" si="38"/>
         <v>0.9999980610100323</v>
       </c>
@@ -3463,65 +5459,65 @@
         <f>SUM(C34:N34)</f>
         <v>6</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="13">
         <f>SQRT(O34)</f>
         <v>2.4494897427831779</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <f>C25^2</f>
-        <v>0.29595896909330399</v>
-      </c>
-      <c r="D35" s="15">
+        <v>0.25640616249649706</v>
+      </c>
+      <c r="D35" s="13">
         <f t="shared" ref="D35:N35" si="39">D25^2</f>
-        <v>0.70404103090669601</v>
-      </c>
-      <c r="E35" s="15">
+        <v>0.74359383750350283</v>
+      </c>
+      <c r="E35" s="13">
         <f t="shared" si="39"/>
-        <v>0.6963288451057994</v>
-      </c>
-      <c r="F35" s="15">
+        <v>0.18669605736576367</v>
+      </c>
+      <c r="F35" s="13">
         <f t="shared" si="39"/>
-        <v>0.3036711548942006</v>
-      </c>
-      <c r="G35" s="15">
+        <v>0.81330394263423633</v>
+      </c>
+      <c r="G35" s="13">
         <f t="shared" si="39"/>
-        <v>0.20040917625796778</v>
-      </c>
-      <c r="H35" s="15">
+        <v>0.99499570921058922</v>
+      </c>
+      <c r="H35" s="13">
         <f t="shared" si="39"/>
-        <v>0.79959082374203216</v>
-      </c>
-      <c r="I35" s="15">
+        <v>5.004290789410705E-3</v>
+      </c>
+      <c r="I35" s="13">
         <f t="shared" si="39"/>
-        <v>9.9667110793791851E-3</v>
-      </c>
-      <c r="J35" s="15">
+        <v>0.70807341827357118</v>
+      </c>
+      <c r="J35" s="13">
         <f t="shared" si="39"/>
-        <v>0.99003328892062092</v>
-      </c>
-      <c r="K35" s="15">
+        <v>0.29192658172642888</v>
+      </c>
+      <c r="K35" s="13">
         <f t="shared" si="39"/>
-        <v>4.6408707331590659E-4</v>
-      </c>
-      <c r="L35" s="15">
+        <v>4.5702173179047186E-2</v>
+      </c>
+      <c r="L35" s="13">
         <f t="shared" si="39"/>
-        <v>0.9995359129266842</v>
-      </c>
-      <c r="M35" s="15">
+        <v>0.95429782682095288</v>
+      </c>
+      <c r="M35" s="13">
         <f t="shared" si="39"/>
-        <v>2.1544192181135462E-5</v>
-      </c>
-      <c r="N35" s="15">
+        <v>2.1528879381300663E-3</v>
+      </c>
+      <c r="N35" s="13">
         <f t="shared" si="39"/>
-        <v>0.99997845580781874</v>
+        <v>0.99784711206186982</v>
       </c>
       <c r="O35" s="3">
         <f>SUM(C35:N35)</f>
         <v>6</v>
       </c>
-      <c r="P35" s="15">
+      <c r="P35" s="13">
         <f>SQRT(O35)</f>
         <v>2.4494897427831779</v>
       </c>
@@ -3536,14 +5532,1174 @@
   <ignoredErrors>
     <ignoredError sqref="D7:E7 F7:M7 D16:M16 D25:M25" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80A0201-DD0F-4ED1-8186-8ED416BEBE85}">
+  <dimension ref="A2:R46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
+        <v>3</v>
+      </c>
+      <c r="J4" s="21">
+        <v>3</v>
+      </c>
+      <c r="K4" s="20">
+        <v>4</v>
+      </c>
+      <c r="L4" s="20">
+        <v>4</v>
+      </c>
+      <c r="M4" s="21">
+        <v>5</v>
+      </c>
+      <c r="N4" s="21">
+        <v>5</v>
+      </c>
+      <c r="O4" s="20">
+        <v>6</v>
+      </c>
+      <c r="P4" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <f>1/(10000^(2*(E4-1)/$E$2))</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8">
+        <f>1/(10000^(2*(G4-1)/$E$2))</f>
+        <v>0.21544346900318836</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6">
+        <f>1/(10000^(2*(I4-1)/$E$2))</f>
+        <v>4.6415888336127781E-2</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8">
+        <f>1/(10000^(2*(K4-1)/$E$2))</f>
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6">
+        <f>1/(10000^(2*(M4-1)/$E$2))</f>
+        <v>2.1544346900318825E-3</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8">
+        <f>1/(10000^(2*(O4-1)/$E$2))</f>
+        <v>4.6415888336127757E-4</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
+        <f>COS($E3*E7)*E6-SIN($E3*E7)*F6</f>
+        <v>-0.26855850335002268</v>
+      </c>
+      <c r="F8" s="6">
+        <f>SIN($E3*E7)*E6+COS($E3*E7)*F6</f>
+        <v>-0.46677224668824924</v>
+      </c>
+      <c r="G8" s="8">
+        <f>COS($E3*G7)*G6-SIN($E3*G7)*H6</f>
+        <v>-4.2036931899462449E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SIN($E3*G7)*G6+COS($E3*G7)*H6</f>
+        <v>0.71988394645003717</v>
+      </c>
+      <c r="I8" s="6">
+        <f>COS($E3*I7)*I6-SIN($E3*I7)*J6</f>
+        <v>0.1425448993951148</v>
+      </c>
+      <c r="J8" s="6">
+        <f>SIN($E3*I7)*I6+COS($E3*I7)*J6</f>
+        <v>0.42388789987028008</v>
+      </c>
+      <c r="K8" s="8">
+        <f>COS($E3*K7)*K6-SIN($E3*K7)*L6</f>
+        <v>0.19691045672954796</v>
+      </c>
+      <c r="L8" s="8">
+        <f>SIN($E3*K7)*K6+COS($E3*K7)*L6</f>
+        <v>0.1059541034153979</v>
+      </c>
+      <c r="M8" s="6">
+        <f>COS($E3*M7)*M6-SIN($E3*M7)*N6</f>
+        <v>0.29417680071371755</v>
+      </c>
+      <c r="N8" s="6">
+        <f>SIN($E3*M7)*M6+COS($E3*M7)*N6</f>
+        <v>0.90192017935172164</v>
+      </c>
+      <c r="O8" s="8">
+        <f>COS($E3*O7)*O6-SIN($E3*O7)*P6</f>
+        <v>0.69888534039311523</v>
+      </c>
+      <c r="P8" s="8">
+        <f>SIN($E3*O7)*O6+COS($E3*O7)*P6</f>
+        <v>0.80097395774369573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="str">
+        <f>TEXT(E8, "#,##0.00")</f>
+        <v>-0.27</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="shared" ref="F9:P9" si="0">TEXT(F8, "#,##0.00")</f>
+        <v>-0.47</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.04</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.14</v>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.20</v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.29</v>
+      </c>
+      <c r="N9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.90</v>
+      </c>
+      <c r="O9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.70</v>
+      </c>
+      <c r="P9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <f>COS(E3*E7)</f>
+        <v>-0.98999249660044542</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SIN(E7*E3)</f>
+        <v>0.14112000805986721</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="18" t="str">
+        <f>"i=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E4:P4) &amp; "]"</f>
+        <v>i=[1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6]</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="str">
+        <f>"Q=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E6:P6) &amp; "]"</f>
+        <v>Q=[0.2, 0.5, 0.4, 0.6, 0.2, 0.4, 0.2, 0.1, 0.3, 0.9, 0.7, 0.8]</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="18" t="str">
+        <f>"theta=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E7:P7) &amp; "]"</f>
+        <v>theta=[1, 0.215443469003188, 0.0464158883361278, 0.01, 0.00215443469003188, 0.000464158883361278]</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="16"/>
+      <c r="D14" s="18" t="str">
+        <f>"RoPE(Q)=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E9:P9) &amp; "]"</f>
+        <v>RoPE(Q)=[-0.27, -0.47, -0.04, 0.72, 0.14, 0.42, 0.20, 0.11, 0.29, 0.90, 0.70, 0.80]</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>2</v>
+      </c>
+      <c r="I19" s="21">
+        <v>3</v>
+      </c>
+      <c r="J19" s="21">
+        <v>3</v>
+      </c>
+      <c r="K19" s="20">
+        <v>4</v>
+      </c>
+      <c r="L19" s="20">
+        <v>4</v>
+      </c>
+      <c r="M19" s="21">
+        <v>5</v>
+      </c>
+      <c r="N19" s="21">
+        <v>5</v>
+      </c>
+      <c r="O19" s="20">
+        <v>6</v>
+      </c>
+      <c r="P19" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6">
+        <f>1/(10000^(2*(E19-1)/$E$2))</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8">
+        <f>1/(10000^(2*(G19-1)/$E$2))</f>
+        <v>0.21544346900318836</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6">
+        <f>1/(10000^(2*(I19-1)/$E$2))</f>
+        <v>4.6415888336127781E-2</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8">
+        <f>1/(10000^(2*(K19-1)/$E$2))</f>
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="6">
+        <f>1/(10000^(2*(M19-1)/$E$2))</f>
+        <v>2.1544346900318825E-3</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="8">
+        <f>1/(10000^(2*(O19-1)/$E$2))</f>
+        <v>4.6415888336127757E-4</v>
+      </c>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6">
+        <f>COS($E18*E22)*E21-SIN($E18*E22)*F21</f>
+        <v>0.10662791186408774</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SIN($E18*E22)*E21+COS($E18*E22)*F21</f>
+        <v>-0.4884981969378232</v>
+      </c>
+      <c r="G23" s="8">
+        <f>COS($E18*G22)*G21-SIN($E18*G22)*H21</f>
+        <v>-8.6690530263776641E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <f>SIN($E18*G22)*G21+COS($E18*G22)*H21</f>
+        <v>0.20611829604036908</v>
+      </c>
+      <c r="I23" s="6">
+        <f>COS($E18*I22)*I21-SIN($E18*I22)*J21</f>
+        <v>0.65105003841060327</v>
+      </c>
+      <c r="J23" s="6">
+        <f>SIN($E18*I22)*I21+COS($E18*I22)*J21</f>
+        <v>0.3257819017157827</v>
+      </c>
+      <c r="K23" s="8">
+        <f>COS($E18*K22)*K21-SIN($E18*K22)*L21</f>
+        <v>8.3924276991444127E-2</v>
+      </c>
+      <c r="L23" s="8">
+        <f>SIN($E18*K22)*K21+COS($E18*K22)*L21</f>
+        <v>0.40367897608305459</v>
+      </c>
+      <c r="M23" s="6">
+        <f>COS($E18*M22)*M21-SIN($E18*M22)*N21</f>
+        <v>0.29826533383696968</v>
+      </c>
+      <c r="N23" s="6">
+        <f>SIN($E18*M22)*M21+COS($E18*M22)*N21</f>
+        <v>0.20257786313198445</v>
+      </c>
+      <c r="O23" s="8">
+        <f>COS($E18*O22)*O21-SIN($E18*O22)*P21</f>
+        <v>9.9071510411885E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <f>SIN($E18*O22)*O21+COS($E18*O22)*P21</f>
+        <v>0.50018480167304935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="str">
+        <f>TEXT(E23, "#,##0.00")</f>
+        <v>0.11</v>
+      </c>
+      <c r="F24" s="11" t="str">
+        <f t="shared" ref="F24:P24" si="1">TEXT(F23, "#,##0.00")</f>
+        <v>-0.49</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.09</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="J24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="K24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.40</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.30</v>
+      </c>
+      <c r="N24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.20</v>
+      </c>
+      <c r="O24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.10</v>
+      </c>
+      <c r="P24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D26" s="18" t="str">
+        <f>"i=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E19:P19) &amp; "]"</f>
+        <v>i=[1, 1, 2, 2, 3, 3, 4, 4, 5, 5, 6, 6]</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="18" t="str">
+        <f>"K=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E21:P21) &amp; "]"</f>
+        <v>K=[0.3, 0.4, 0.1, 0.2, 0.7, 0.2, 0.1, 0.4, 0.3, 0.2, 0.1, 0.5]</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D28" s="18" t="str">
+        <f>"theta=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E22:P22) &amp; "]"</f>
+        <v>theta=[1, 0.215443469003188, 0.0464158883361278, 0.01, 0.00215443469003188, 0.000464158883361278]</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="16"/>
+      <c r="D29" s="18" t="str">
+        <f>"RoPE(Q)=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E24:P24) &amp; "]"</f>
+        <v>RoPE(Q)=[0.11, -0.49, -0.09, 0.21, 0.65, 0.33, 0.08, 0.40, 0.30, 0.20, 0.10, 0.50]</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3">
+        <f>E6*E21</f>
+        <v>0.06</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ref="F33:P33" si="2">F6*F21</f>
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3">
+        <f>E8*E23</f>
+        <v>-2.863583242555753E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ref="F34:P34" si="3">F8*F23</f>
+        <v>0.22801740088782657</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>3.6442039170266672E-3</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14838125238909797</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2803862226425074E-2</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13809500613404913</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6525567713082355E-2</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2771443978525905E-2</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="3"/>
+        <v>8.774274167196866E-2</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18270906264868794</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="3"/>
+        <v>6.9239626277470309E-2</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.40063500019930787</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="4:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="str">
+        <f>TEXT(E34, "#,##0.00")</f>
+        <v>-0.03</v>
+      </c>
+      <c r="F35" s="11" t="str">
+        <f t="shared" ref="F35:P35" si="4">TEXT(F34, "#,##0.00")</f>
+        <v>0.23</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00</v>
+      </c>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="J35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.14</v>
+      </c>
+      <c r="K35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="L35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="M35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="N35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="O35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.07</v>
+      </c>
+      <c r="P35" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0.40</v>
+      </c>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D37" s="18" t="str">
+        <f>"K=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E33:P33) &amp; "]"</f>
+        <v>K=[0.06, 0.2, 0.04, 0.12, 0.14, 0.08, 0.02, 0.04, 0.09, 0.18, 0.07, 0.4]</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D38" s="18" t="str">
+        <f>"RoPE(Q).Rope(K)=[" &amp; _xlfn.TEXTJOIN(", ", TRUE, E35:P35) &amp; "]"</f>
+        <v>RoPE(Q).Rope(K)=[-0.03, 0.23, 0.00, 0.15, 0.09, 0.14, 0.02, 0.04, 0.09, 0.18, 0.07, 0.40]</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="3">
+        <f>SUM(E33:P33)</f>
+        <v>1.4400000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3">
+        <f>SUM(E34:P34)</f>
+        <v>1.3819293356179108</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7</v>
+      </c>
+      <c r="K44" s="3">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
+        <v>9</v>
+      </c>
+      <c r="M44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="G46" s="3">
+        <f>1.38</f>
+        <v>1.38</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D13:P13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F8 H8 J8 L8 N8" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B443B6B3-2697-4AB7-B101-B5D320626EF4}">
   <dimension ref="B2:BS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BE12" sqref="BE12"/>
     </sheetView>
   </sheetViews>
